--- a/test_input.xlsx
+++ b/test_input.xlsx
@@ -1,89 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgiySavchenko\Documents\Pull From SS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73DC56D-B7B9-4783-80F9-94FBA6295F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GP Solar 14 Limited (Feckenham)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="IGP Solar 15 Limited (Melksham)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="P Solar 16 Limited (Ironbridge)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Item" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ad" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="bike" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="boat" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="car" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="plane" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="skateborad" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>boat</t>
-  </si>
-  <si>
-    <t>bike</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>skateborad</t>
-  </si>
-  <si>
-    <t>plane</t>
-  </si>
-  <si>
-    <t>ad</t>
-  </si>
-  <si>
-    <t>awd</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,21 +56,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,86 +395,2560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bike</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>stop</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>6</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>skateborad</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>awd</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>plane</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>plane</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DN1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test Column</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>plane</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:DN1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test Column</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>skateborad</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr"/>
+      <c r="L1" t="inlineStr"/>
+      <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr"/>
+      <c r="O1" t="inlineStr"/>
+      <c r="P1" t="inlineStr"/>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr"/>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr"/>
+      <c r="AC1" t="inlineStr"/>
+      <c r="AD1" t="inlineStr"/>
+      <c r="AE1" t="inlineStr"/>
+      <c r="AF1" t="inlineStr"/>
+      <c r="AG1" t="inlineStr"/>
+      <c r="AH1" t="inlineStr"/>
+      <c r="AI1" t="inlineStr"/>
+      <c r="AJ1" t="inlineStr"/>
+      <c r="AK1" t="inlineStr"/>
+      <c r="AL1" t="inlineStr"/>
+      <c r="AM1" t="inlineStr"/>
+      <c r="AN1" t="inlineStr"/>
+      <c r="AO1" t="inlineStr"/>
+      <c r="AP1" t="inlineStr"/>
+      <c r="AQ1" t="inlineStr"/>
+      <c r="AR1" t="inlineStr"/>
+      <c r="AS1" t="inlineStr"/>
+      <c r="AT1" t="inlineStr"/>
+      <c r="AU1" t="inlineStr"/>
+      <c r="AV1" t="inlineStr"/>
+      <c r="AW1" t="inlineStr"/>
+      <c r="AX1" t="inlineStr"/>
+      <c r="AY1" t="inlineStr"/>
+      <c r="AZ1" t="inlineStr"/>
+      <c r="BA1" t="inlineStr"/>
+      <c r="BB1" t="inlineStr"/>
+      <c r="BC1" t="inlineStr"/>
+      <c r="BD1" t="inlineStr"/>
+      <c r="BE1" t="inlineStr"/>
+      <c r="BF1" t="inlineStr"/>
+      <c r="BG1" t="inlineStr"/>
+      <c r="BH1" t="inlineStr"/>
+      <c r="BI1" t="inlineStr"/>
+      <c r="BJ1" t="inlineStr"/>
+      <c r="BK1" t="inlineStr"/>
+      <c r="BL1" t="inlineStr"/>
+      <c r="BM1" t="inlineStr"/>
+      <c r="BN1" t="inlineStr"/>
+      <c r="BO1" t="inlineStr"/>
+      <c r="BP1" t="inlineStr"/>
+      <c r="BQ1" t="inlineStr"/>
+      <c r="BR1" t="inlineStr"/>
+      <c r="BS1" t="inlineStr"/>
+      <c r="BT1" t="inlineStr"/>
+      <c r="BU1" t="inlineStr"/>
+      <c r="BV1" t="inlineStr"/>
+      <c r="BW1" t="inlineStr"/>
+      <c r="BX1" t="inlineStr"/>
+      <c r="BY1" t="inlineStr"/>
+      <c r="BZ1" t="inlineStr"/>
+      <c r="CA1" t="inlineStr"/>
+      <c r="CB1" t="inlineStr"/>
+      <c r="CC1" t="inlineStr"/>
+      <c r="CD1" t="inlineStr"/>
+      <c r="CE1" t="inlineStr"/>
+      <c r="CF1" t="inlineStr"/>
+      <c r="CG1" t="inlineStr"/>
+      <c r="CH1" t="inlineStr"/>
+      <c r="CI1" t="inlineStr"/>
+      <c r="CJ1" t="inlineStr"/>
+      <c r="CK1" t="inlineStr"/>
+      <c r="CL1" t="inlineStr"/>
+      <c r="CM1" t="inlineStr"/>
+      <c r="CN1" t="inlineStr"/>
+      <c r="CO1" t="inlineStr"/>
+      <c r="CP1" t="inlineStr"/>
+      <c r="CQ1" t="inlineStr"/>
+      <c r="CR1" t="inlineStr"/>
+      <c r="CS1" t="inlineStr"/>
+      <c r="CT1" t="inlineStr"/>
+      <c r="CU1" t="inlineStr"/>
+      <c r="CV1" t="inlineStr"/>
+      <c r="CW1" t="inlineStr"/>
+      <c r="CX1" t="inlineStr"/>
+      <c r="CY1" t="inlineStr"/>
+      <c r="CZ1" t="inlineStr"/>
+      <c r="DA1" t="inlineStr"/>
+      <c r="DB1" t="inlineStr"/>
+      <c r="DC1" t="inlineStr"/>
+      <c r="DD1" t="inlineStr"/>
+      <c r="DE1" t="inlineStr"/>
+      <c r="DF1" t="inlineStr"/>
+      <c r="DG1" t="inlineStr"/>
+      <c r="DH1" t="inlineStr"/>
+      <c r="DI1" t="inlineStr"/>
+      <c r="DJ1" t="inlineStr"/>
+      <c r="DK1" t="inlineStr"/>
+      <c r="DL1" t="inlineStr"/>
+      <c r="DM1" t="inlineStr"/>
+      <c r="DN1" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upfront sales proceeds Solar</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
+        <v>65000000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Upfront sales proceeds Battery</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>18750000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Deferred sales proceeds</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Grid cost refund</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>220060.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Upfront Costs</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Grid Connection</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>59300</v>
+      </c>
+      <c r="E6" t="n">
+        <v>160760.88</v>
+      </c>
+      <c r="F6" t="n">
+        <v>220060.88</v>
+      </c>
+      <c r="G6" t="n">
+        <v>220060.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Planning Application</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1594805.2308</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Other weighted</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Geo Phys</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>550000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>550000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Other even</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2058</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2062942</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2065000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Trial Trenching</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Last 6 months</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Statement of needs</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>150000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DCO Success</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>650000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>650000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Comms</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>450000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>450000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Planning studies</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2058</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5962942</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5965000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6215167.541688321</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Land option</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>875000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>875000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>915960.7179999995</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Accounting &amp; administration</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1826</v>
+      </c>
+      <c r="E18" t="n">
+        <v>28100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29926</v>
+      </c>
+      <c r="G18" t="n">
+        <v>31298.89332726605</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Professional services</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>250899.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>256899.25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>268644.408200756</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>14</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Legal fees</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>93100.75</v>
+      </c>
+      <c r="F20" t="n">
+        <v>93100.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>93100.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Professional services total</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>99100.75</v>
+      </c>
+      <c r="E21" t="n">
+        <v>250899.25</v>
+      </c>
+      <c r="F21" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>361745.158200756</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Personnel expenses</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Other (Bank Charges)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>74</v>
+      </c>
+      <c r="F23" t="n">
+        <v>74</v>
+      </c>
+      <c r="G23" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Close Costs</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>105000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>105000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>114791.930568</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>14</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IGP Solar 14 Limited (Feckenham)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Development Commission</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2247500</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2247500</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2247500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upfront sales proceeds Solar</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
+        <v>65000000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Upfront sales proceeds Battery</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>18750000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Deferred sales proceeds</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Grid cost refund</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>928920.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Upfront Costs</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Grid Connection</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>876386</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52534.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>928920.02</v>
+      </c>
+      <c r="G6" t="n">
+        <v>928920.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Planning Application</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1542571.0002</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Other weighted</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Geo Phys</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>550000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Other even</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>927238</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1137762</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2065000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Trial Trenching</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Last 6 months</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Statement of needs</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>150000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DCO Success</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>650000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Comms</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>450000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Planning studies</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>927238</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5037762</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5965000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6044506.532699998</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Land option</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>116207</v>
+      </c>
+      <c r="E17" t="n">
+        <v>748793</v>
+      </c>
+      <c r="F17" t="n">
+        <v>865000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>881391.1304108967</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Accounting &amp; administration</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3227</v>
+      </c>
+      <c r="E18" t="n">
+        <v>26695</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29922</v>
+      </c>
+      <c r="G18" t="n">
+        <v>30845.784976816</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Professional services</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>179331</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2137</v>
+      </c>
+      <c r="F19" t="n">
+        <v>181468</v>
+      </c>
+      <c r="G19" t="n">
+        <v>181514.7790773793</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Legal fees</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>178532</v>
+      </c>
+      <c r="F20" t="n">
+        <v>178532</v>
+      </c>
+      <c r="G20" t="n">
+        <v>178532</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Professional services total</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>357863</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2137</v>
+      </c>
+      <c r="F21" t="n">
+        <v>360000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>360046.7790773793</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>15</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Personnel expenses</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Other (Bank Charges)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>78</v>
+      </c>
+      <c r="F23" t="n">
+        <v>78</v>
+      </c>
+      <c r="G23" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>15</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Close Costs</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>105000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>105000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>112541.1084</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IGP Solar 15 Limited (Melksham)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Development Commission</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2247500</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2247500</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2247500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upfront sales proceeds Solar</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Upfront sales proceeds Battery</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Deferred sales proceeds</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Grid cost refund</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>214349.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Upfront Costs</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Grid Connection</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>67310</v>
+      </c>
+      <c r="E6" t="n">
+        <v>147039.75</v>
+      </c>
+      <c r="F6" t="n">
+        <v>214349.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>214349.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Planning Application</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1594805.2308</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Other weighted</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Geo Phys</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>550000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Other even</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>460.48</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2064539.52</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2065000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Trial Trenching</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Last 6 months</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>16</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Statement of needs</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>150000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>16</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DCO Success</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>650000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>16</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Comms</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>450000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Planning studies</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>460.48</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5964539.52</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5965000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6215222.517141443</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Land option</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>875000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>875000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>915960.7179999995</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Accounting &amp; administration</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1526</v>
+      </c>
+      <c r="E18" t="n">
+        <v>28433</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29959</v>
+      </c>
+      <c r="G18" t="n">
+        <v>31347.58274816995</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Professional services</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>54682</v>
+      </c>
+      <c r="E19" t="n">
+        <v>290442</v>
+      </c>
+      <c r="F19" t="n">
+        <v>345124</v>
+      </c>
+      <c r="G19" t="n">
+        <v>358720.2432655497</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Legal fees</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4876</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4876</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Professional services total</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>59558</v>
+      </c>
+      <c r="E21" t="n">
+        <v>290442</v>
+      </c>
+      <c r="F21" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>363596.2432655497</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Personnel expenses</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>16</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Other (Bank Charges)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>41</v>
+      </c>
+      <c r="F23" t="n">
+        <v>41</v>
+      </c>
+      <c r="G23" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Close Costs</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>105000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>105000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>114791.930568</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IGP Solar 16 Limited (Ironbridge)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Development Commission</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>867000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>867000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>867000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Test Column</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test Column</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ad</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>bike</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Test Column</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bike</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Test Column</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Test Column</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>